--- a/weights data.xlsx
+++ b/weights data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipporavalli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipporavalli/Desktop/Project-3-Data-Mining-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB5177C-EBFC-724E-92A3-DF17768A1C3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D1FCD-7D0A-6D43-A828-B2561A31119E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="10400" windowHeight="14180" xr2:uid="{7FC3E9EF-2BAC-2A45-BBAB-96C266B57418}"/>
+    <workbookView xWindow="-5220" yWindow="-21100" windowWidth="12640" windowHeight="20660" xr2:uid="{7FC3E9EF-2BAC-2A45-BBAB-96C266B57418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Variable</t>
   </si>
@@ -36,9 +36,6 @@
     <t>MCQ010</t>
   </si>
   <si>
-    <t>MCQ160A</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>MCQ160B</t>
   </si>
   <si>
-    <t xml:space="preserve">If MCQ195=1 use 0.128, other use given value </t>
-  </si>
-  <si>
     <t>MCQ160C</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>MCQ160F</t>
   </si>
   <si>
-    <t>1=yes, added two values together for first stroke + stroke survivor</t>
-  </si>
-  <si>
     <t>MCQ160M</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>MCQ160O</t>
   </si>
   <si>
-    <t>MCQ160L</t>
-  </si>
-  <si>
-    <t>MCQ500</t>
-  </si>
-  <si>
     <t>MCQ510A</t>
   </si>
   <si>
@@ -135,20 +120,20 @@
     <t>MCQ203</t>
   </si>
   <si>
-    <t>MCQ230A</t>
-  </si>
-  <si>
-    <t>if 10: 0.09; if 11: 0.09; if 12: 0.09; if 13: 0.09; if 14: 0.09; if 15: 0.08; if 16: 0.20; if 17: 0.20; if 18: 0.09; if 19: 0.09; if 20: 0.09; if 21: 0.09; if 22: 0.20; if 23: 0.15; if 24: 0.06; if 25: 0.05; if 26: 0.09; if 27: 0.09; if 28: 0.10; if 29: 0.20; if 30: 0.13; if 31: 020; if 32: 0.05; if 33: 0.05; if 34: 0.09; if 35: 0.20; if 36: 0.09; if 37: 0.09; if 38: 0.09; if 39: 0.09</t>
-  </si>
-  <si>
-    <t>MCQ230B</t>
-  </si>
-  <si>
-    <t>MCQ230C</t>
-  </si>
-  <si>
-    <t>if 10: 0.09; if 11: 0.09; if 12: 0.09; if 13: 0.09; 
-if 14: 0.09; if 15: 0.08; if 16: 0.20; if 17: 0.20; if 18: 0.09; if 19: 0.09; if 20: 0.09; if 21: 0.09; if 22: 0.20; if 23: 0.15; if 24: 0.06; if 25: 0.05; if 26: 0.09; if 27: 0.09; if 28: 0.10; if 29: 0.20; if 30: 0.13; if 31: 020; if 32: 0.05; if 33: 0.05; if 34: 0.09; if 35: 0.20; if 36: 0.09; if 37: 0.09; if 38: 0.09; if 39: 0.09</t>
+    <t xml:space="preserve">If MCQ195=1 use 0.089, other use given value </t>
+  </si>
+  <si>
+    <t>MCQ195</t>
+  </si>
+  <si>
+    <t>MCQ053</t>
+  </si>
+  <si>
+    <t>if 10: 0.293; if 11: 0.332; if 12: 0.332; if 13: 0.332; 
+if 14: 0.332; if 15: 0.332; if 16: 0.26; if 17: 0.332; if 18: 0.332; if 19: 0.332; if 20: 0.332; if 21: 0.332; if 22: 0.332; if 23: 0.332; if 24: 0.332; if 25: 0.332; if 26: 0.332; if 27: 0.332; if 28: 0.332; if 29: 0.332; if 30: 0.332; if 31: 0.332; if 32: 0.332; if 33: 0.332; if 34: 0.332; if 35: 0.332; if 36: 0.332; if 37: 0.332; if 38: 0.332; if 39: 0.332</t>
+  </si>
+  <si>
+    <t>MCQ230A/B/C</t>
   </si>
 </sst>
 </file>
@@ -503,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D70A48-D516-6247-841D-14DB9A868312}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -522,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -530,260 +515,251 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.2999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>0.19900000000000001</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.13200000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.20100000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.124</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.439</v>
+        <v>0.432</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1.19</v>
+        <v>0.309</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.35</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.16</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.16</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>7.4999999999999997E-2</v>
+        <v>0.22</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>7.4999999999999997E-2</v>
+        <v>0.22</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="136">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="409.6">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
